--- a/apple_price.xlsx
+++ b/apple_price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsuzakiyuuki/Desktop/Study/MyPython/graduate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266B8A6F-7079-FF4D-B727-EE3C2F65A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4C013A-65A6-0A44-A7A9-7F9C0D14EEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{B7B12E16-F10B-064D-9270-B7FAF248D8D3}"/>
+    <workbookView xWindow="500" yWindow="1060" windowWidth="28300" windowHeight="16940" xr2:uid="{B7B12E16-F10B-064D-9270-B7FAF248D8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,8 +89,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,13 +410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DB3AA-6EC0-2B45-91FE-FAA0673B6220}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -424,472 +430,473 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1964</v>
+      <c r="A2" s="1">
+        <v>23468</v>
       </c>
       <c r="B2">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1965</v>
+      <c r="A3" s="1">
+        <v>23833</v>
       </c>
       <c r="B3">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1966</v>
+      <c r="A4" s="1">
+        <v>24198</v>
       </c>
       <c r="B4">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1967</v>
+      <c r="A5" s="1">
+        <v>24563</v>
       </c>
       <c r="B5">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1968</v>
+      <c r="A6" s="1">
+        <v>24929</v>
       </c>
       <c r="B6">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1969</v>
+      <c r="A7" s="1">
+        <v>25294</v>
       </c>
       <c r="B7">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1970</v>
+      <c r="A8" s="1">
+        <v>25659</v>
       </c>
       <c r="B8">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1971</v>
+      <c r="A9" s="1">
+        <v>26024</v>
       </c>
       <c r="B9">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1972</v>
+      <c r="A10" s="1">
+        <v>26390</v>
       </c>
       <c r="B10">
         <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1973</v>
+      <c r="A11" s="1">
+        <v>26755</v>
       </c>
       <c r="B11">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1974</v>
+      <c r="A12" s="1">
+        <v>27120</v>
       </c>
       <c r="B12">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1975</v>
+      <c r="A13" s="1">
+        <v>27485</v>
       </c>
       <c r="B13">
         <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1976</v>
+      <c r="A14" s="1">
+        <v>27851</v>
       </c>
       <c r="B14">
         <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1977</v>
+      <c r="A15" s="1">
+        <v>28216</v>
       </c>
       <c r="B15">
         <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1978</v>
+      <c r="A16" s="1">
+        <v>28581</v>
       </c>
       <c r="B16">
         <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1979</v>
+      <c r="A17" s="1">
+        <v>28946</v>
       </c>
       <c r="B17">
         <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1980</v>
+      <c r="A18" s="1">
+        <v>29312</v>
       </c>
       <c r="B18">
         <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1981</v>
+      <c r="A19" s="1">
+        <v>29677</v>
       </c>
       <c r="B19">
         <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1982</v>
+      <c r="A20" s="1">
+        <v>30042</v>
       </c>
       <c r="B20">
         <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1983</v>
+      <c r="A21" s="1">
+        <v>30407</v>
       </c>
       <c r="B21">
         <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1984</v>
+      <c r="A22" s="1">
+        <v>30773</v>
       </c>
       <c r="B22">
         <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1985</v>
+      <c r="A23" s="1">
+        <v>31138</v>
       </c>
       <c r="B23">
         <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1986</v>
+      <c r="A24" s="1">
+        <v>31503</v>
       </c>
       <c r="B24">
         <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1987</v>
+      <c r="A25" s="1">
+        <v>31868</v>
       </c>
       <c r="B25">
         <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1988</v>
+      <c r="A26" s="1">
+        <v>32234</v>
       </c>
       <c r="B26">
         <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1989</v>
+      <c r="A27" s="1">
+        <v>32599</v>
       </c>
       <c r="B27">
         <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1990</v>
+      <c r="A28" s="1">
+        <v>32964</v>
       </c>
       <c r="B28">
         <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1991</v>
+      <c r="A29" s="1">
+        <v>33329</v>
       </c>
       <c r="B29">
         <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1992</v>
+      <c r="A30" s="1">
+        <v>33695</v>
       </c>
       <c r="B30">
         <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1993</v>
+      <c r="A31" s="1">
+        <v>34060</v>
       </c>
       <c r="B31">
         <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1994</v>
+      <c r="A32" s="1">
+        <v>34425</v>
       </c>
       <c r="B32">
         <v>515</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1995</v>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>34790</v>
       </c>
       <c r="B33">
         <v>515</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1996</v>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>35156</v>
       </c>
       <c r="B34">
         <v>487</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1997</v>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>35521</v>
       </c>
       <c r="B35">
         <v>497</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1998</v>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35886</v>
       </c>
       <c r="B36">
         <v>472</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1999</v>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36251</v>
       </c>
       <c r="B37">
         <v>539</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>2000</v>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36617</v>
       </c>
       <c r="B38">
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>2001</v>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>36982</v>
       </c>
       <c r="B39">
         <v>544</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>2002</v>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>37347</v>
       </c>
       <c r="B40">
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>2003</v>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>37712</v>
       </c>
       <c r="B41">
         <v>430</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>2004</v>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>38078</v>
       </c>
       <c r="B42">
         <v>472</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>2005</v>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>38443</v>
       </c>
       <c r="B43">
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>2006</v>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>38808</v>
       </c>
       <c r="B44">
         <v>472</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>2007</v>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>39173</v>
       </c>
       <c r="B45">
         <v>484</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>2008</v>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>39539</v>
       </c>
       <c r="B46">
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>2009</v>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>39904</v>
       </c>
       <c r="B47">
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>2010</v>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>40269</v>
       </c>
       <c r="B48">
         <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49">
-        <v>2011</v>
+      <c r="A49" s="1">
+        <v>40634</v>
       </c>
       <c r="B49">
         <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50">
-        <v>2012</v>
+      <c r="A50" s="1">
+        <v>41000</v>
       </c>
       <c r="B50">
         <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51">
-        <v>2013</v>
+      <c r="A51" s="1">
+        <v>41365</v>
       </c>
       <c r="B51">
         <v>470</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52">
-        <v>2014</v>
+      <c r="A52" s="1">
+        <v>41730</v>
       </c>
       <c r="B52">
         <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53">
-        <v>2015</v>
+      <c r="A53" s="1">
+        <v>42095</v>
       </c>
       <c r="B53">
         <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54">
-        <v>2016</v>
+      <c r="A54" s="1">
+        <v>42461</v>
       </c>
       <c r="B54">
         <v>590</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55">
-        <v>2017</v>
+      <c r="A55" s="1">
+        <v>42826</v>
       </c>
       <c r="B55">
         <v>535</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56">
-        <v>2018</v>
+      <c r="A56" s="1">
+        <v>43191</v>
       </c>
       <c r="B56">
         <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57">
-        <v>2019</v>
+      <c r="A57" s="1">
+        <v>43556</v>
       </c>
       <c r="B57">
         <v>537</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58">
-        <v>2020</v>
+      <c r="A58" s="1">
+        <v>43922</v>
       </c>
       <c r="B58">
         <v>683</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59">
-        <v>2021</v>
+      <c r="A59" s="1">
+        <v>44287</v>
       </c>
       <c r="B59">
         <v>568</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60">
-        <v>2022</v>
+      <c r="A60" s="1">
+        <v>44652</v>
       </c>
       <c r="B60">
         <v>676</v>
